--- a/dy/expdata/10003.xlsx
+++ b/dy/expdata/10003.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:AMK185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -448,10 +448,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>223</v>
+        <v>14.93</v>
       </c>
       <c r="E2" s="2">
-        <v>9.9500000000000005E-2</v>
+        <v>0.315</v>
       </c>
       <c r="F2" s="2">
         <v>0.54100000000000004</v>
@@ -483,10 +483,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>223</v>
+        <v>14.93</v>
       </c>
       <c r="E3" s="2">
-        <v>0.107</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="F3" s="2">
         <v>0.432</v>
@@ -518,10 +518,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>223</v>
+        <v>14.93</v>
       </c>
       <c r="E4" s="2">
-        <v>0.11700000000000001</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="F4" s="2">
         <v>0.33800000000000002</v>
@@ -553,10 +553,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>223</v>
+        <v>14.93</v>
       </c>
       <c r="E5" s="2">
-        <v>0.13400000000000001</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="F5" s="2">
         <v>0.25600000000000001</v>
@@ -588,10 +588,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>223</v>
+        <v>14.93</v>
       </c>
       <c r="E6" s="2">
-        <v>0.155</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="F6" s="2">
         <v>0.183</v>
@@ -623,10 +623,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>223</v>
+        <v>14.93</v>
       </c>
       <c r="E7" s="2">
-        <v>0.18099999999999999</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="F7" s="2">
         <v>9.1999999999999998E-2</v>

--- a/dy/expdata/10003.xlsx
+++ b/dy/expdata/10003.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:AMK185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -448,7 +448,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>14.93</v>
+        <v>14.9</v>
       </c>
       <c r="E2" s="2">
         <v>0.315</v>
@@ -483,7 +483,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>14.93</v>
+        <v>14.9</v>
       </c>
       <c r="E3" s="2">
         <v>0.32700000000000001</v>
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>14.93</v>
+        <v>14.9</v>
       </c>
       <c r="E4" s="2">
         <v>0.34200000000000003</v>
@@ -553,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>14.93</v>
+        <v>14.9</v>
       </c>
       <c r="E5" s="2">
         <v>0.36599999999999999</v>
@@ -588,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>14.93</v>
+        <v>14.9</v>
       </c>
       <c r="E6" s="2">
         <v>0.39300000000000002</v>
@@ -623,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>14.93</v>
+        <v>14.9</v>
       </c>
       <c r="E7" s="2">
         <v>0.42599999999999999</v>
